--- a/数据分析_不同碳配额.xlsx
+++ b/数据分析_不同碳配额.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Documents/GitHub/TEPwithCEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F4D45-6658-E740-9C56-FE75876E726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F4F747-CA88-EB47-B3FB-B12B83B86F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="760" windowWidth="21400" windowHeight="17300" xr2:uid="{4EDE5B75-4FCD-8E44-B6D0-74FDFC514C2A}"/>
+    <workbookView xWindow="2660" yWindow="760" windowWidth="21400" windowHeight="17300" activeTab="1" xr2:uid="{4EDE5B75-4FCD-8E44-B6D0-74FDFC514C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="不同碳配额水平成本" sheetId="6" r:id="rId1"/>
@@ -279,14 +279,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6505,7 +6505,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7333,7 +7333,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7680,7 +7680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8127,7 +8127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8664,7 +8664,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21541,8 +21541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E626F1A8-2FFF-9045-BFEB-81F49FC02C52}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:F54"/>
+    <sheetView topLeftCell="A39" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21864,155 +21864,155 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="13">
+      <c r="B48" s="11">
         <f>B59/100000000</f>
         <v>713.41088031801496</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="11">
         <f t="shared" ref="C48:F48" si="2">C59/100000000</f>
         <v>717.44188955492098</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="11">
         <f t="shared" si="2"/>
         <v>706.36661195227407</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <f t="shared" si="2"/>
         <v>730.73533235755099</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="11">
         <f t="shared" si="2"/>
         <v>737.18583505237393</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="13">
+      <c r="B49" s="11">
         <f t="shared" ref="B49:F49" si="3">B60/100000000</f>
         <v>771.44981386248799</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <f t="shared" si="3"/>
         <v>779.7389790457471</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="11">
         <f t="shared" si="3"/>
         <v>813.58961874474107</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="11">
         <f t="shared" si="3"/>
         <v>802.11868183155502</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="11">
         <f t="shared" si="3"/>
         <v>836.49613878318496</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="13">
+      <c r="B50" s="11">
         <f t="shared" ref="B50:F50" si="4">B61/100000000</f>
         <v>-11.2012535061973</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="11">
         <f t="shared" si="4"/>
         <v>2.7847673101173802</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="11">
         <f t="shared" si="4"/>
         <v>24.029043668420901</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="11">
         <f t="shared" si="4"/>
         <v>46.853957739733694</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="13">
+      <c r="B51" s="11">
         <f t="shared" ref="B51:F51" si="5">B62/100000000</f>
         <v>-15.416968668771801</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="11">
         <f t="shared" si="5"/>
         <v>-23.077146024000001</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="11">
         <f t="shared" si="5"/>
         <v>-39.4304259463132</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="11">
         <f t="shared" si="5"/>
         <v>-27.505158004817901</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="11">
         <f t="shared" si="5"/>
         <v>-23.851597719900898</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="13">
+      <c r="B52" s="11">
         <f t="shared" ref="B52:F52" si="6">B63/100000000</f>
         <v>5.7528426494444203</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="11">
         <f t="shared" si="6"/>
         <v>14.902652178028701</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="11">
         <f t="shared" si="6"/>
         <v>31.172023195595003</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="11">
         <f t="shared" si="6"/>
         <v>28.791514788866202</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="11">
         <f t="shared" si="6"/>
         <v>11.384576891974199</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="13">
+      <c r="B53" s="11">
         <f t="shared" ref="B53:F53" si="7">B64/100000000</f>
         <v>-20.865379525524681</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="11">
         <f t="shared" si="7"/>
         <v>-5.3897265358539199</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="11">
         <f t="shared" si="7"/>
         <v>15.770640917702703</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="11">
         <f t="shared" si="7"/>
         <v>48.140314523781996</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="11">
         <f t="shared" si="7"/>
         <v>-12.467020827926699</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="13">
+      <c r="B54" s="11">
         <f t="shared" ref="B54:F54" si="8">B65/100000000</f>
         <v>1463.9953146549783</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="11">
         <f t="shared" si="8"/>
         <v>1491.791142064814</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="11">
         <f t="shared" si="8"/>
         <v>1535.7268716147178</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="11">
         <f t="shared" si="8"/>
         <v>1580.9943287128879</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="11">
         <f t="shared" si="8"/>
         <v>1561.2149530076324</v>
       </c>
@@ -22164,7 +22164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4EF70C-3B59-2040-86C5-7503953064EF}">
   <dimension ref="B3:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9:H11"/>
     </sheetView>
   </sheetViews>
@@ -22241,13 +22241,13 @@
       </c>
     </row>
     <row r="7" spans="2:26">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="L7">
         <v>1</v>
       </c>
@@ -22310,7 +22310,7 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
@@ -22363,7 +22363,7 @@
       </c>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
@@ -22384,7 +22384,7 @@
       <c r="H9">
         <v>15</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" t="s">
         <v>3</v>
       </c>
@@ -22435,7 +22435,7 @@
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -22454,7 +22454,7 @@
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" t="s">
         <v>7</v>
       </c>
@@ -22505,7 +22505,7 @@
       </c>
     </row>
     <row r="11" spans="2:26">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -22578,7 +22578,7 @@
       </c>
     </row>
     <row r="30" spans="10:26">
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K30" t="s">
@@ -22631,7 +22631,7 @@
       </c>
     </row>
     <row r="31" spans="10:26">
-      <c r="J31" s="11"/>
+      <c r="J31" s="12"/>
       <c r="K31" t="s">
         <v>3</v>
       </c>
@@ -22682,7 +22682,7 @@
       </c>
     </row>
     <row r="32" spans="10:26">
-      <c r="J32" s="11"/>
+      <c r="J32" s="12"/>
       <c r="K32" t="s">
         <v>7</v>
       </c>
@@ -22826,13 +22826,13 @@
     <row r="7" spans="2:26">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="L7">
         <v>1</v>
       </c>
@@ -22897,7 +22897,7 @@
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
@@ -22950,7 +22950,7 @@
       </c>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -22971,7 +22971,7 @@
       <c r="H9" s="4">
         <v>9</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" t="s">
         <v>3</v>
       </c>
@@ -23022,7 +23022,7 @@
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -23041,7 +23041,7 @@
       <c r="H10" s="4">
         <v>18</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" t="s">
         <v>7</v>
       </c>
@@ -23092,7 +23092,7 @@
       </c>
     </row>
     <row r="11" spans="2:26">
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
@@ -23165,7 +23165,7 @@
       </c>
     </row>
     <row r="30" spans="10:26">
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K30" t="s">
@@ -23218,7 +23218,7 @@
       </c>
     </row>
     <row r="31" spans="10:26">
-      <c r="J31" s="11"/>
+      <c r="J31" s="12"/>
       <c r="K31" t="s">
         <v>3</v>
       </c>
@@ -23269,7 +23269,7 @@
       </c>
     </row>
     <row r="32" spans="10:26">
-      <c r="J32" s="11"/>
+      <c r="J32" s="12"/>
       <c r="K32" t="s">
         <v>7</v>
       </c>
@@ -23379,7 +23379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843A51C-A51C-6A47-AC4F-8B39DDD1B3F0}">
   <dimension ref="B5:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -23394,13 +23394,13 @@
       </c>
     </row>
     <row r="7" spans="2:26">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="L7">
         <v>1</v>
       </c>
@@ -23463,7 +23463,7 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
@@ -23516,7 +23516,7 @@
       </c>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
@@ -23537,7 +23537,7 @@
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" t="s">
         <v>3</v>
       </c>
@@ -23588,7 +23588,7 @@
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -23607,7 +23607,7 @@
       <c r="H10">
         <v>15</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" t="s">
         <v>7</v>
       </c>
@@ -23658,7 +23658,7 @@
       </c>
     </row>
     <row r="11" spans="2:26">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -23731,7 +23731,7 @@
       </c>
     </row>
     <row r="30" spans="10:26">
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K30" t="s">
@@ -23784,7 +23784,7 @@
       </c>
     </row>
     <row r="31" spans="10:26">
-      <c r="J31" s="11"/>
+      <c r="J31" s="12"/>
       <c r="K31" t="s">
         <v>3</v>
       </c>
@@ -23835,7 +23835,7 @@
       </c>
     </row>
     <row r="32" spans="10:26">
-      <c r="J32" s="11"/>
+      <c r="J32" s="12"/>
       <c r="K32" t="s">
         <v>7</v>
       </c>
@@ -23962,13 +23962,13 @@
       </c>
     </row>
     <row r="7" spans="2:26">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="L7">
         <v>1</v>
       </c>
@@ -24031,7 +24031,7 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
@@ -24084,7 +24084,7 @@
       </c>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
@@ -24105,7 +24105,7 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" t="s">
         <v>3</v>
       </c>
@@ -24156,7 +24156,7 @@
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -24175,7 +24175,7 @@
       <c r="H10">
         <v>24</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" t="s">
         <v>7</v>
       </c>
@@ -24226,7 +24226,7 @@
       </c>
     </row>
     <row r="11" spans="2:26">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -24299,7 +24299,7 @@
       </c>
     </row>
     <row r="29" spans="10:26">
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K29" t="s">
@@ -24352,7 +24352,7 @@
       </c>
     </row>
     <row r="30" spans="10:26">
-      <c r="J30" s="11"/>
+      <c r="J30" s="12"/>
       <c r="K30" t="s">
         <v>3</v>
       </c>
@@ -24403,7 +24403,7 @@
       </c>
     </row>
     <row r="31" spans="10:26">
-      <c r="J31" s="11"/>
+      <c r="J31" s="12"/>
       <c r="K31" t="s">
         <v>7</v>
       </c>
@@ -24557,13 +24557,13 @@
     <row r="7" spans="2:26">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="L7">
         <v>1</v>
       </c>
@@ -24628,7 +24628,7 @@
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
@@ -24681,7 +24681,7 @@
       </c>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -24702,7 +24702,7 @@
       <c r="H9" s="4">
         <v>24</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" t="s">
         <v>3</v>
       </c>
@@ -24753,7 +24753,7 @@
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -24772,7 +24772,7 @@
       <c r="H10" s="4">
         <v>6</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" t="s">
         <v>7</v>
       </c>
@@ -24823,7 +24823,7 @@
       </c>
     </row>
     <row r="11" spans="2:26">
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
@@ -24896,7 +24896,7 @@
       </c>
     </row>
     <row r="30" spans="10:26">
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K30" t="s">
@@ -24949,7 +24949,7 @@
       </c>
     </row>
     <row r="31" spans="10:26">
-      <c r="J31" s="11"/>
+      <c r="J31" s="12"/>
       <c r="K31" t="s">
         <v>3</v>
       </c>
@@ -25000,7 +25000,7 @@
       </c>
     </row>
     <row r="32" spans="10:26">
-      <c r="J32" s="11"/>
+      <c r="J32" s="12"/>
       <c r="K32" t="s">
         <v>7</v>
       </c>
